--- a/FINAL - 성능 비교 위한 정리본/setp 2 - model 평가/colab 비교 결과/데이터 통계 수치_그래프.xlsx
+++ b/FINAL - 성능 비교 위한 정리본/setp 2 - model 평가/colab 비교 결과/데이터 통계 수치_그래프.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\THIS _\캡스톤\최종 발표 _\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\THIS _\github\capstone_team2\FINAL - 성능 비교 위한 정리본\setp 2 - model 평가\colab 비교 결과\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338517CC-4951-4680-A841-13811D22EA68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCAE363-931D-4E21-AB5A-3C21F8F1D792}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{854B6E97-255A-4F41-953A-6F349FC55C40}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{854B6E97-255A-4F41-953A-6F349FC55C40}"/>
   </bookViews>
   <sheets>
     <sheet name="전체 결과" sheetId="1" r:id="rId1"/>
@@ -222,9 +222,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="185" formatCode="0.00_ "/>
-    <numFmt numFmtId="197" formatCode="0.000_ "/>
-    <numFmt numFmtId="200" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -335,7 +335,7 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="197" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4">
@@ -359,10 +359,10 @@
     <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="5" borderId="0" xfId="4" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="0" xfId="4" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
@@ -371,19 +371,19 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1">
@@ -892,8 +892,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1156,11 +1157,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:rPr lang="ko-KR"/>
               <a:t>분석 결과 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:rPr lang="en-US"/>
               <a:t>2</a:t>
             </a:r>
             <a:endParaRPr lang="ko-KR"/>
@@ -1203,10 +1204,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10799522718161671"/>
-          <c:y val="0.21649942088512114"/>
-          <c:w val="0.84096019877918715"/>
-          <c:h val="0.62055225173491146"/>
+          <c:x val="0.11771974546347172"/>
+          <c:y val="0.1791346815650553"/>
+          <c:w val="0.83610528899714875"/>
+          <c:h val="0.64426968586266742"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1321,19 +1322,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>596</c:v>
+                  <c:v>426</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>525</c:v>
+                  <c:v>440</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>498</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>440</c:v>
+                  <c:v>525</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>426</c:v>
+                  <c:v>596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1345,26 +1346,26 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25.6121037006378</c:v>
+                  <c:v>20.0454728603363</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.689036130905102</c:v>
+                  <c:v>19.757028341293299</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>23.453845739364599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.757028341293299</c:v>
+                  <c:v>23.689036130905102</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.0454728603363</c:v>
+                  <c:v>25.6121037006378</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3C87-42CD-848B-F60892F6E798}"/>
+              <c16:uniqueId val="{00000000-461C-4C88-AE6D-2E2BD380123A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1372,7 +1373,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>NZB 적용 O</c:v>
+            <c:v>NZB 적용 O </c:v>
           </c:tx>
           <c:spPr>
             <a:gradFill rotWithShape="1">
@@ -1476,19 +1477,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>596</c:v>
+                  <c:v>426</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>525</c:v>
+                  <c:v>440</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>498</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>440</c:v>
+                  <c:v>525</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>426</c:v>
+                  <c:v>596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1500,26 +1501,26 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>21.8831207752227</c:v>
+                  <c:v>15.743277549743601</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.1138625144958</c:v>
+                  <c:v>16.023953199386501</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>18.340385675430198</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.023953199386501</c:v>
+                  <c:v>19.1138625144958</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.743277549743601</c:v>
+                  <c:v>21.8831207752227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3C87-42CD-848B-F60892F6E798}"/>
+              <c16:uniqueId val="{00000002-461C-4C88-AE6D-2E2BD380123A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1533,11 +1534,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="444562744"/>
-        <c:axId val="444560120"/>
+        <c:axId val="418623800"/>
+        <c:axId val="418626752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="444562744"/>
+        <c:axId val="418623800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1563,7 +1564,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ko-KR" altLang="en-US"/>
+                  <a:rPr lang="ko-KR"/>
                   <a:t>문장수</a:t>
                 </a:r>
               </a:p>
@@ -1635,7 +1636,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444560120"/>
+        <c:crossAx val="418626752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1643,7 +1644,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="444560120"/>
+        <c:axId val="418626752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="26"/>
@@ -1685,7 +1686,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ko-KR" altLang="en-US"/>
+                  <a:rPr lang="ko-KR"/>
                   <a:t>분석 시간</a:t>
                 </a:r>
               </a:p>
@@ -1751,7 +1752,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444562744"/>
+        <c:crossAx val="418623800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1764,15 +1765,15 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.74736027835970031"/>
-          <c:y val="8.8709169418338799E-2"/>
-          <c:w val="0.25263979970803363"/>
-          <c:h val="6.953077095276565E-2"/>
+          <c:x val="0.67216821361017021"/>
+          <c:y val="9.318211007814739E-2"/>
+          <c:w val="0.28360459830789309"/>
+          <c:h val="7.0055358513059149E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2330,8 +2331,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2497,8 +2499,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.6519529462582867"/>
-          <c:y val="0.10622542528782108"/>
+          <c:x val="0.66599796514199772"/>
+          <c:y val="0.10622555452627246"/>
           <c:w val="0.29321087321949924"/>
           <c:h val="6.8934306005866919E-2"/>
         </c:manualLayout>
@@ -5348,22 +5350,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="차트 3">
+        <xdr:cNvPr id="2" name="차트 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEFB6019-E9B5-45E3-891B-3E2427354193}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5FBC345-FBAD-471A-8586-EF8EE2D093D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6828,7 +6830,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="A1:E5"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6838,38 +6840,38 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B1" s="5">
-        <v>25.6121037006378</v>
+        <v>20.0454728603363</v>
       </c>
       <c r="C1" s="5">
-        <v>21.8831207752227</v>
+        <v>15.743277549743601</v>
       </c>
       <c r="D1" s="3">
-        <v>596</v>
+        <v>426</v>
       </c>
       <c r="E1" s="6">
         <f t="shared" ref="E1:E5" si="0">B1-C1</f>
-        <v>3.7289829254150995</v>
+        <v>4.3021953105926993</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B2" s="5">
-        <v>23.689036130905102</v>
+        <v>19.757028341293299</v>
       </c>
       <c r="C2" s="5">
-        <v>19.1138625144958</v>
+        <v>16.023953199386501</v>
       </c>
       <c r="D2" s="3">
-        <v>525</v>
+        <v>440</v>
       </c>
       <c r="E2" s="6">
         <f t="shared" si="0"/>
-        <v>4.5751736164093018</v>
+        <v>3.7330751419067987</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -6892,44 +6894,45 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5">
-        <v>19.757028341293299</v>
+        <v>23.689036130905102</v>
       </c>
       <c r="C4" s="5">
-        <v>16.023953199386501</v>
+        <v>19.1138625144958</v>
       </c>
       <c r="D4" s="3">
-        <v>440</v>
+        <v>525</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" si="0"/>
-        <v>3.7330751419067987</v>
+        <v>4.5751736164093018</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B5" s="5">
-        <v>20.0454728603363</v>
+        <v>25.6121037006378</v>
       </c>
       <c r="C5" s="5">
-        <v>15.743277549743601</v>
+        <v>21.8831207752227</v>
       </c>
       <c r="D5" s="3">
-        <v>426</v>
+        <v>596</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="0"/>
-        <v>4.3021953105926993</v>
+        <v>3.7289829254150995</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6937,8 +6940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244ABC88-2D6F-4394-B17A-C261BF4CC426}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M11:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7030,7 +7033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A24E04-8090-4FFE-8D77-CD8D60F433AA}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
